--- a/Documents/数值系统.xlsx
+++ b/Documents/数值系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="杨超越属性" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>心情值</t>
   </si>
   <si>
-    <t>金币</t>
+    <t>走光次数</t>
   </si>
   <si>
     <t>服装名称</t>
@@ -58,8 +58,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -80,6 +80,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -87,14 +118,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,6 +157,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,17 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,68 +210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,13 +225,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,163 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +416,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,7 +497,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,39 +516,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -524,10 +524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,133 +536,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -991,8 +991,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9999</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1061,7 +1061,7 @@
   <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/Documents/数值系统.xlsx
+++ b/Documents/数值系统.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="杨超越属性" sheetId="1" r:id="rId1"/>
     <sheet name="服装属性" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">服装属性!$A$1:$F$7</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>初始值</t>
   </si>
@@ -51,6 +54,69 @@
   </si>
   <si>
     <t>服装默认颜色</t>
+  </si>
+  <si>
+    <t>墨镜</t>
+  </si>
+  <si>
+    <t>头饰</t>
+  </si>
+  <si>
+    <t>黑色</t>
+  </si>
+  <si>
+    <t>简易T恤</t>
+  </si>
+  <si>
+    <t>上衣</t>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>长袖秋衣</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>普通棉衣</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>牛仔裤</t>
+  </si>
+  <si>
+    <t>下衣</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>牛仔短裤</t>
+  </si>
+  <si>
+    <t>毛绒牛仔裤</t>
+  </si>
+  <si>
+    <t>普通连衣裙</t>
+  </si>
+  <si>
+    <t>连衣裙</t>
+  </si>
+  <si>
+    <t>打底短裤</t>
+  </si>
+  <si>
+    <t>打底裤</t>
+  </si>
+  <si>
+    <t>普通高跟鞋</t>
+  </si>
+  <si>
+    <t>鞋</t>
   </si>
 </sst>
 </file>
@@ -58,8 +124,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -72,6 +138,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -80,53 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,6 +246,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -156,61 +261,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,19 +291,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,163 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +482,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,30 +574,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -477,45 +582,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -524,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,138 +602,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,7 +1060,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -1059,14 +1128,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
@@ -1075,7 +1145,7 @@
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
@@ -1091,7 +1161,210 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F7">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
